--- a/docs/icare/obf-ServiceRequest.xlsx
+++ b/docs/icare/obf-ServiceRequest.xlsx
@@ -233,7 +233,7 @@
     <t>sourcesystem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-SourceSystem-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SourceSystem-extension}
 </t>
   </si>
   <si>
@@ -427,7 +427,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-Status-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Status-extension}
 </t>
   </si>
   <si>
@@ -437,7 +437,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-Identifier-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Identifier-extension}
 </t>
   </si>
   <si>
@@ -447,7 +447,7 @@
     <t>subjectofrecord</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-SubjectOfRecord-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SubjectOfRecord-extension}
 </t>
   </si>
   <si>
@@ -458,7 +458,7 @@
     <t>carecontext</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-CareContext-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-CareContext-extension}
 </t>
   </si>
   <si>
@@ -489,7 +489,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
   </si>
   <si>
-    <t>http://mcodeinitiative.org/us/icare/StructureDefinition/obf-CareContext-extension</t>
+    <t>http://icaredata.org/icare/StructureDefinition/obf-CareContext-extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -514,7 +514,7 @@
     <t>statementdatetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-StatementDateTime-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-StatementDateTime-extension}
 </t>
   </si>
   <si>
@@ -524,7 +524,7 @@
     <t>reasoncode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-ReasonCode-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ReasonCode-extension}
 </t>
   </si>
   <si>
@@ -535,7 +535,7 @@
     <t>servicereasonreference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-ServiceReasonReference-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ServiceReasonReference-extension}
 </t>
   </si>
   <si>
@@ -545,7 +545,7 @@
     <t>servicebasedon</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-ServiceBasedOn-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ServiceBasedOn-extension}
 </t>
   </si>
   <si>
@@ -555,7 +555,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-Code-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Code-extension}
 </t>
   </si>
   <si>
@@ -565,7 +565,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-Category-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Category-extension}
 </t>
   </si>
   <si>
@@ -575,7 +575,7 @@
     <t>requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-Requester-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Requester-extension}
 </t>
   </si>
   <si>
@@ -585,14 +585,14 @@
     <t>requestintent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-RequestIntent-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-RequestIntent-extension}
 </t>
   </si>
   <si>
     <t>Indicates the level of authority/intentionality associated with the request and where the request fits into the workflow chain.</t>
   </si>
   <si>
-    <t>http://mcodeinitiative.org/us/icare/StructureDefinition/obf-RequestIntent-extension</t>
+    <t>http://icaredata.org/icare/StructureDefinition/obf-RequestIntent-extension</t>
   </si>
   <si>
     <t>Basic.extension.valueCodeableConcept</t>
@@ -614,7 +614,7 @@
     <t>expectedperformancetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-ExpectedPerformanceTime-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ExpectedPerformanceTime-extension}
 </t>
   </si>
   <si>
@@ -624,7 +624,7 @@
     <t>expectedperformertype</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-ExpectedPerformerType-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ExpectedPerformerType-extension}
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>expectedperformer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-ExpectedPerformer-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ExpectedPerformer-extension}
 </t>
   </si>
   <si>
@@ -644,7 +644,7 @@
     <t>prioritycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-PriorityCode-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-PriorityCode-extension}
 </t>
   </si>
   <si>
@@ -654,7 +654,7 @@
     <t>annotation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-Annotation-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Annotation-extension}
 </t>
   </si>
   <si>
@@ -664,17 +664,17 @@
     <t>replacesrequest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-ReplacesRequest-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ReplacesRequest-extension}
 </t>
   </si>
   <si>
     <t>Request(s) replaced by this request</t>
   </si>
   <si>
-    <t>http://mcodeinitiative.org/us/icare/StructureDefinition/obf-ReplacesRequest-extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/icare/StructureDefinition/obf-ServiceRequest)
+    <t>http://icaredata.org/icare/StructureDefinition/obf-ReplacesRequest-extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://icaredata.org/icare/StructureDefinition/obf-ServiceRequest)
 </t>
   </si>
   <si>
@@ -684,7 +684,7 @@
     <t>groupidentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-GroupIdentifier-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-GroupIdentifier-extension}
 </t>
   </si>
   <si>
@@ -694,7 +694,7 @@
     <t>donotperform</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-DoNotPerform-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-DoNotPerform-extension}
 </t>
   </si>
   <si>
@@ -704,7 +704,7 @@
     <t>servicedetails</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-ServiceDetails-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ServiceDetails-extension}
 </t>
   </si>
   <si>
@@ -714,7 +714,7 @@
     <t>requestquantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-RequestQuantity-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-RequestQuantity-extension}
 </t>
   </si>
   <si>
@@ -724,7 +724,7 @@
     <t>requestsubjectofrecord</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-RequestSubjectOfRecord-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-RequestSubjectOfRecord-extension}
 </t>
   </si>
   <si>
@@ -734,7 +734,7 @@
     <t>asneeded</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-AsNeeded-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-AsNeeded-extension}
 </t>
   </si>
   <si>
@@ -744,7 +744,7 @@
     <t>locationtype</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-LocationType-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-LocationType-extension}
 </t>
   </si>
   <si>
@@ -754,7 +754,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-Location-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Location-extension}
 </t>
   </si>
   <si>
@@ -764,7 +764,7 @@
     <t>insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-Insurance-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Insurance-extension}
 </t>
   </si>
   <si>
@@ -774,7 +774,7 @@
     <t>supportinginformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-SupportingInformation-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SupportingInformation-extension}
 </t>
   </si>
   <si>
@@ -784,7 +784,7 @@
     <t>specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-Specimen-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Specimen-extension}
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>bodylocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-BodyLocation-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-BodyLocation-extension}
 </t>
   </si>
   <si>
@@ -810,7 +810,7 @@
     <t>patientinstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-PatientInstruction-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-PatientInstruction-extension}
 </t>
   </si>
   <si>
@@ -862,7 +862,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://mcodeinitiative.org/us/icare/CodeSystem/icare-basic-resource-type"/&gt;
+    &lt;system value="http://icaredata.org/icare/CodeSystem/icare-basic-resource-type"/&gt;
     &lt;code value="obf-ServiceRequest"/&gt;
     &lt;userSelected value="false"/&gt;
   &lt;/coding&gt;

--- a/docs/icare/obf-ServiceRequest.xlsx
+++ b/docs/icare/obf-ServiceRequest.xlsx
@@ -233,7 +233,7 @@
     <t>sourcesystem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SourceSystem-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-SourceSystem-extension}
 </t>
   </si>
   <si>
@@ -427,7 +427,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Status-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-Status-extension}
 </t>
   </si>
   <si>
@@ -437,7 +437,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Identifier-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-Identifier-extension}
 </t>
   </si>
   <si>
@@ -447,7 +447,7 @@
     <t>subjectofrecord</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SubjectOfRecord-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-SubjectOfRecord-extension}
 </t>
   </si>
   <si>
@@ -458,7 +458,7 @@
     <t>carecontext</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-CareContext-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-CareContext-extension}
 </t>
   </si>
   <si>
@@ -489,7 +489,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
   </si>
   <si>
-    <t>http://icaredata.org/icare/StructureDefinition/obf-CareContext-extension</t>
+    <t>http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-CareContext-extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -514,7 +514,7 @@
     <t>statementdatetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-StatementDateTime-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-StatementDateTime-extension}
 </t>
   </si>
   <si>
@@ -524,7 +524,7 @@
     <t>reasoncode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ReasonCode-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-ReasonCode-extension}
 </t>
   </si>
   <si>
@@ -535,7 +535,7 @@
     <t>servicereasonreference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ServiceReasonReference-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-ServiceReasonReference-extension}
 </t>
   </si>
   <si>
@@ -545,7 +545,7 @@
     <t>servicebasedon</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ServiceBasedOn-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-ServiceBasedOn-extension}
 </t>
   </si>
   <si>
@@ -555,7 +555,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Code-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-Code-extension}
 </t>
   </si>
   <si>
@@ -565,7 +565,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Category-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-Category-extension}
 </t>
   </si>
   <si>
@@ -575,7 +575,7 @@
     <t>requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Requester-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-Requester-extension}
 </t>
   </si>
   <si>
@@ -585,14 +585,14 @@
     <t>requestintent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-RequestIntent-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-RequestIntent-extension}
 </t>
   </si>
   <si>
     <t>Indicates the level of authority/intentionality associated with the request and where the request fits into the workflow chain.</t>
   </si>
   <si>
-    <t>http://icaredata.org/icare/StructureDefinition/obf-RequestIntent-extension</t>
+    <t>http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-RequestIntent-extension</t>
   </si>
   <si>
     <t>Basic.extension.valueCodeableConcept</t>
@@ -614,7 +614,7 @@
     <t>expectedperformancetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ExpectedPerformanceTime-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-ExpectedPerformanceTime-extension}
 </t>
   </si>
   <si>
@@ -624,7 +624,7 @@
     <t>expectedperformertype</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ExpectedPerformerType-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-ExpectedPerformerType-extension}
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>expectedperformer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ExpectedPerformer-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-ExpectedPerformer-extension}
 </t>
   </si>
   <si>
@@ -644,7 +644,7 @@
     <t>prioritycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-PriorityCode-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-PriorityCode-extension}
 </t>
   </si>
   <si>
@@ -654,7 +654,7 @@
     <t>annotation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Annotation-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-Annotation-extension}
 </t>
   </si>
   <si>
@@ -664,17 +664,17 @@
     <t>replacesrequest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ReplacesRequest-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-ReplacesRequest-extension}
 </t>
   </si>
   <si>
     <t>Request(s) replaced by this request</t>
   </si>
   <si>
-    <t>http://icaredata.org/icare/StructureDefinition/obf-ReplacesRequest-extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://icaredata.org/icare/StructureDefinition/obf-ServiceRequest)
+    <t>http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-ReplacesRequest-extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-ServiceRequest)
 </t>
   </si>
   <si>
@@ -684,7 +684,7 @@
     <t>groupidentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-GroupIdentifier-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-GroupIdentifier-extension}
 </t>
   </si>
   <si>
@@ -694,7 +694,7 @@
     <t>donotperform</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-DoNotPerform-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-DoNotPerform-extension}
 </t>
   </si>
   <si>
@@ -704,7 +704,7 @@
     <t>servicedetails</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ServiceDetails-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-ServiceDetails-extension}
 </t>
   </si>
   <si>
@@ -714,7 +714,7 @@
     <t>requestquantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-RequestQuantity-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-RequestQuantity-extension}
 </t>
   </si>
   <si>
@@ -724,7 +724,7 @@
     <t>requestsubjectofrecord</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-RequestSubjectOfRecord-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-RequestSubjectOfRecord-extension}
 </t>
   </si>
   <si>
@@ -734,7 +734,7 @@
     <t>asneeded</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-AsNeeded-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-AsNeeded-extension}
 </t>
   </si>
   <si>
@@ -744,7 +744,7 @@
     <t>locationtype</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-LocationType-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-LocationType-extension}
 </t>
   </si>
   <si>
@@ -754,7 +754,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Location-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-Location-extension}
 </t>
   </si>
   <si>
@@ -764,7 +764,7 @@
     <t>insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Insurance-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-Insurance-extension}
 </t>
   </si>
   <si>
@@ -774,7 +774,7 @@
     <t>supportinginformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SupportingInformation-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-SupportingInformation-extension}
 </t>
   </si>
   <si>
@@ -784,7 +784,7 @@
     <t>specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Specimen-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-Specimen-extension}
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>bodylocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-BodyLocation-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-BodyLocation-extension}
 </t>
   </si>
   <si>
@@ -810,7 +810,7 @@
     <t>patientinstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-PatientInstruction-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-PatientInstruction-extension}
 </t>
   </si>
   <si>
@@ -862,7 +862,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://icaredata.org/icare/CodeSystem/icare-basic-resource-type"/&gt;
+    &lt;system value="http://mcodeinitiative.org/codex/us/icare/CodeSystem/icare-basic-resource-type"/&gt;
     &lt;code value="obf-ServiceRequest"/&gt;
     &lt;userSelected value="false"/&gt;
   &lt;/coding&gt;
